--- a/base_datos.xlsx
+++ b/base_datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad77bd5198ca104c/Documentos/Progra/estudio_empresa_distribucion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franm\OneDrive\Documentos\Progra\estudio_empresa_distribucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFD315D0-5019-4EAE-AAE7-0B66C33D2540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{EFD315D0-5019-4EAE-AAE7-0B66C33D2540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FEE83D4A-9A1B-4183-86BE-39C176849ADB}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{66CE7537-F7A5-354F-B99D-C98F266C5556}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{66CE7537-F7A5-354F-B99D-C98F266C5556}"/>
   </bookViews>
   <sheets>
     <sheet name="Ventas" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="54">
   <si>
     <t>Fecha de Venta</t>
   </si>
@@ -124,15 +124,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Jonatan</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Lalo</t>
-  </si>
-  <si>
     <t>Carne</t>
   </si>
   <si>
@@ -142,49 +133,19 @@
     <t>Moto A</t>
   </si>
   <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Ernesto</t>
-  </si>
-  <si>
     <t>Tocino</t>
-  </si>
-  <si>
-    <t>si</t>
   </si>
   <si>
     <t>Chorizo Argentino, Chorizo Uruguayo</t>
   </si>
   <si>
-    <t>Enrique "Quique"</t>
-  </si>
-  <si>
-    <t>Moises</t>
-  </si>
-  <si>
     <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Fabiola</t>
-  </si>
-  <si>
-    <t>El que bateo</t>
   </si>
   <si>
     <t>Barcelona, Bremen</t>
   </si>
   <si>
-    <t>Ricardo</t>
-  </si>
-  <si>
     <t>Tocino, Chorizo Argentino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julio </t>
-  </si>
-  <si>
-    <t>Pendiente</t>
   </si>
   <si>
     <t>Bremen, Mercado</t>
@@ -193,46 +154,13 @@
     <t>Moto B</t>
   </si>
   <si>
-    <t>Florentino Garcia</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yoly </t>
-  </si>
-  <si>
-    <t>Audencio</t>
-  </si>
-  <si>
     <t>Adobado</t>
-  </si>
-  <si>
-    <t>Edgar</t>
-  </si>
-  <si>
-    <t>Noe</t>
-  </si>
-  <si>
-    <t>Juan Carlos Hernandez</t>
-  </si>
-  <si>
-    <t>Edvin</t>
-  </si>
-  <si>
-    <t>Raul</t>
-  </si>
-  <si>
-    <t>Diego y Angelica</t>
   </si>
   <si>
     <t>Jamon</t>
   </si>
   <si>
     <t>Premier, Mercado</t>
-  </si>
-  <si>
-    <t>Manuela</t>
   </si>
   <si>
     <t>Carne, Pollo</t>
@@ -247,274 +175,22 @@
     <t>Bremen, Pricesmart</t>
   </si>
   <si>
-    <t>Eladio</t>
-  </si>
-  <si>
-    <t>Cesar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giovani </t>
-  </si>
-  <si>
-    <t>Rene Miranda</t>
-  </si>
-  <si>
-    <t>Ramiro</t>
-  </si>
-  <si>
-    <t>Edelvina</t>
-  </si>
-  <si>
-    <t>Hector Juarez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mario </t>
-  </si>
-  <si>
-    <t>Joshua</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
     <t>Chorizo Argentino</t>
   </si>
   <si>
     <t>Bremen, Santa Lucia</t>
   </si>
   <si>
-    <t>Rocael</t>
-  </si>
-  <si>
     <t>Bremen, Barcelona, Mercado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noel </t>
-  </si>
-  <si>
-    <t>Matias</t>
   </si>
   <si>
     <t xml:space="preserve">Carne, Pollo </t>
   </si>
   <si>
-    <t xml:space="preserve">Falta Visitar </t>
-  </si>
-  <si>
-    <t>Cindy</t>
-  </si>
-  <si>
-    <t>Adonias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victor Hugo </t>
-  </si>
-  <si>
     <t>Pollo</t>
   </si>
   <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>Pendiente Nombre</t>
-  </si>
-  <si>
-    <t>Melvin</t>
-  </si>
-  <si>
-    <t>Javier</t>
-  </si>
-  <si>
-    <t>Walter</t>
-  </si>
-  <si>
-    <t>Orozco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Carlos </t>
-  </si>
-  <si>
-    <t>Don Chuko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramiro </t>
-  </si>
-  <si>
-    <t>Edwin</t>
-  </si>
-  <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>Agustin</t>
-  </si>
-  <si>
-    <t>Corina</t>
-  </si>
-  <si>
-    <t>Minor</t>
-  </si>
-  <si>
-    <t>Sandra</t>
-  </si>
-  <si>
     <t>Comedor</t>
-  </si>
-  <si>
-    <t>Claudia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doña Mary </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johana </t>
-  </si>
-  <si>
-    <t>Julio Luna</t>
-  </si>
-  <si>
-    <t>Cafeteria Mikeri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doña Julia </t>
-  </si>
-  <si>
-    <t>Nicolas</t>
-  </si>
-  <si>
-    <t>Doña Linda</t>
-  </si>
-  <si>
-    <t>Jony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan jose </t>
-  </si>
-  <si>
-    <t>Señora del Mercado</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>Paola</t>
-  </si>
-  <si>
-    <t>El Quetzalteco</t>
-  </si>
-  <si>
-    <t>Enrique</t>
-  </si>
-  <si>
-    <t>Cafeteria divino maestro</t>
-  </si>
-  <si>
-    <t>Dominga</t>
-  </si>
-  <si>
-    <t>Chavo Paiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernando </t>
-  </si>
-  <si>
-    <t>Briz</t>
-  </si>
-  <si>
-    <t>Daniela</t>
-  </si>
-  <si>
-    <t>Segundo Chavo Pan</t>
-  </si>
-  <si>
-    <t>Comedor Zuly</t>
-  </si>
-  <si>
-    <t>Comedor Jae</t>
-  </si>
-  <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Tono</t>
-  </si>
-  <si>
-    <t xml:space="preserve">si </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manuel </t>
-  </si>
-  <si>
-    <t>Chavo Century Plaza</t>
-  </si>
-  <si>
-    <t>Amigo de Ramiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El asador </t>
-  </si>
-  <si>
-    <t>Cliente Extraordinario</t>
-  </si>
-  <si>
-    <t>El tenedor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Divina </t>
-  </si>
-  <si>
-    <t>Hamburguesas Johny</t>
-  </si>
-  <si>
-    <t>Amigo de Rene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cafeteria la Bendición </t>
-  </si>
-  <si>
-    <t>Chevi Nais</t>
-  </si>
-  <si>
-    <t>Antojitos Casa Blanca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santos </t>
-  </si>
-  <si>
-    <t>Las Lobas Restaurante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Villa del Sabor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Café Lili </t>
-  </si>
-  <si>
-    <t>Cafeteria Martin</t>
-  </si>
-  <si>
-    <t>Refacciones Genoveva</t>
-  </si>
-  <si>
-    <t>Carniceria San Vicente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cafetería Eva </t>
-  </si>
-  <si>
-    <t>Isaias</t>
-  </si>
-  <si>
-    <t>Jireh</t>
-  </si>
-  <si>
-    <t>Casa Blanca 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex 2 </t>
   </si>
   <si>
     <t>Shucos</t>
@@ -1200,7 +876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9EC691-D45D-AD4A-B48F-424E5CB9BD04}">
   <dimension ref="A1:O598"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
@@ -29936,8 +29612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF32855D-1950-E348-8DE0-9CE15A155FBA}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -29999,46 +29675,34 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
+      <c r="A2" s="18"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1</v>
+      </c>
+      <c r="M2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="5">
-        <v>10</v>
-      </c>
-      <c r="G2" s="19">
-        <v>9</v>
-      </c>
-      <c r="H2" s="19">
-        <v>15</v>
-      </c>
-      <c r="I2" s="5">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5">
-        <v>1</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>1</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="O2" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P2" s="21">
         <v>14.593761000000001</v>
@@ -30047,32 +29711,18 @@
         <v>-90.516204000000002</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A3" s="23">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="A3" s="23"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="9">
-        <v>10</v>
-      </c>
-      <c r="G3" s="24">
-        <v>10</v>
-      </c>
-      <c r="H3" s="24">
-        <v>15</v>
-      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="9">
         <v>1</v>
       </c>
@@ -30087,10 +29737,10 @@
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P3" s="25">
         <v>14.590617999999999</v>
@@ -30099,27 +29749,17 @@
         <v>-90.509628000000006</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A4" s="18">
-        <v>3</v>
-      </c>
+      <c r="A4" s="18"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="5">
-        <v>10</v>
-      </c>
-      <c r="G4" s="19">
-        <v>7</v>
-      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="5">
         <v>1</v>
@@ -30134,13 +29774,13 @@
         <v>1</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P4" s="21">
         <v>14.588857000000001</v>
@@ -30149,50 +29789,38 @@
         <v>-90.507503999999997</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A5" s="23">
-        <v>4</v>
-      </c>
+      <c r="A5" s="23"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="9">
-        <v>10</v>
-      </c>
-      <c r="G5" s="24">
-        <v>10</v>
-      </c>
-      <c r="H5" s="24">
-        <v>17</v>
-      </c>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-      <c r="J5" s="9">
-        <v>1</v>
-      </c>
-      <c r="K5" s="9">
-        <v>1</v>
-      </c>
-      <c r="L5" s="9">
-        <v>1</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="P5" s="28">
         <v>14.588241</v>
@@ -30201,30 +29829,18 @@
         <v>-90.503547999999995</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A6" s="18">
-        <v>5</v>
-      </c>
+      <c r="A6" s="18"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="5">
-        <v>10</v>
-      </c>
-      <c r="G6" s="19">
-        <v>8</v>
-      </c>
-      <c r="H6" s="19">
-        <v>16</v>
-      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="5">
         <v>1</v>
       </c>
@@ -30239,10 +29855,10 @@
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P6" s="21">
         <v>14.583377</v>
@@ -30251,30 +29867,18 @@
         <v>-90.498365000000007</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A7" s="23">
-        <v>6</v>
-      </c>
+      <c r="A7" s="23"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="9">
-        <v>10</v>
-      </c>
-      <c r="G7" s="24">
-        <v>9</v>
-      </c>
-      <c r="H7" s="24">
-        <v>15</v>
-      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="9">
         <v>1</v>
       </c>
@@ -30289,10 +29893,10 @@
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P7" s="28">
         <v>14.578991</v>
@@ -30301,32 +29905,18 @@
         <v>-90.495484000000005</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A8" s="18">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="A8" s="18"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="5">
-        <v>14</v>
-      </c>
-      <c r="G8" s="19">
-        <v>9</v>
-      </c>
-      <c r="H8" s="19">
-        <v>15</v>
-      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="5">
         <v>1</v>
       </c>
@@ -30341,10 +29931,10 @@
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P8" s="29">
         <v>14.584782000000001</v>
@@ -30353,30 +29943,18 @@
         <v>-90.507087999999996</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A9" s="23">
-        <v>8</v>
-      </c>
+      <c r="A9" s="23"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="9">
-        <v>14</v>
-      </c>
-      <c r="G9" s="24">
-        <v>8</v>
-      </c>
-      <c r="H9" s="24">
-        <v>15</v>
-      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="9">
         <v>1</v>
       </c>
@@ -30391,10 +29969,10 @@
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P9" s="28">
         <v>14.585438</v>
@@ -30403,30 +29981,18 @@
         <v>-90.503900000000002</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A10" s="18">
-        <v>9</v>
-      </c>
+      <c r="A10" s="18"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="5">
-        <v>14</v>
-      </c>
-      <c r="G10" s="19">
-        <v>7</v>
-      </c>
-      <c r="H10" s="19">
-        <v>15</v>
-      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="5">
         <v>1</v>
       </c>
@@ -30440,13 +30006,13 @@
         <v>1</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P10" s="29">
         <v>14.581071</v>
@@ -30455,52 +30021,38 @@
         <v>-90.520792999999998</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A11" s="23">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="A11" s="23"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9">
+        <v>1</v>
+      </c>
+      <c r="L11" s="9">
+        <v>1</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="9">
-        <v>14</v>
-      </c>
-      <c r="G11" s="24">
-        <v>9</v>
-      </c>
-      <c r="H11" s="24">
-        <v>16</v>
-      </c>
-      <c r="I11" s="9">
-        <v>1</v>
-      </c>
-      <c r="J11" s="9">
-        <v>1</v>
-      </c>
-      <c r="K11" s="9">
-        <v>1</v>
-      </c>
-      <c r="L11" s="9">
-        <v>1</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="O11" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P11" s="28">
         <v>14.588934</v>
@@ -30509,27 +30061,17 @@
         <v>-90.518827999999999</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A12" s="18">
-        <v>11</v>
-      </c>
+      <c r="A12" s="18"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="5">
-        <v>10</v>
-      </c>
-      <c r="G12" s="19">
-        <v>7</v>
-      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="5">
         <v>1</v>
@@ -30545,10 +30087,10 @@
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P12" s="29">
         <v>14.610760000000001</v>
@@ -30557,27 +30099,17 @@
         <v>-90.514088999999998</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A13" s="23">
-        <v>12</v>
-      </c>
+      <c r="A13" s="23"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="9">
-        <v>10</v>
-      </c>
-      <c r="G13" s="24">
-        <v>7.5</v>
-      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="24"/>
       <c r="I13" s="9">
         <v>1</v>
@@ -30593,10 +30125,10 @@
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P13" s="28">
         <v>14.610760000000001</v>
@@ -30605,27 +30137,17 @@
         <v>-90.514088999999998</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A14" s="18">
-        <v>13</v>
-      </c>
+      <c r="A14" s="18"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="5">
-        <v>10</v>
-      </c>
-      <c r="G14" s="19">
-        <v>8</v>
-      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="5">
         <v>1</v>
@@ -30641,10 +30163,10 @@
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P14" s="29">
         <v>14.610341999999999</v>
@@ -30653,24 +30175,16 @@
         <v>-90.510456000000005</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A15" s="23">
-        <v>14</v>
-      </c>
+      <c r="A15" s="23"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="9">
-        <v>10</v>
-      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
       <c r="I15" s="9"/>
@@ -30680,7 +30194,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P15" s="25">
         <v>14.610391</v>
@@ -30689,27 +30203,17 @@
         <v>-90.509073000000001</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A16" s="18">
-        <v>15</v>
-      </c>
+      <c r="A16" s="18"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="5">
-        <v>10</v>
-      </c>
-      <c r="G16" s="19">
-        <v>8</v>
-      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="5">
         <v>1</v>
@@ -30725,10 +30229,10 @@
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P16" s="21">
         <v>14.610957000000001</v>
@@ -30737,24 +30241,16 @@
         <v>-90.507800000000003</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A17" s="23">
-        <v>16</v>
-      </c>
+      <c r="A17" s="23"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="9">
-        <v>10</v>
-      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="9">
@@ -30770,13 +30266,13 @@
         <v>0</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P17" s="25">
         <v>14.606769999999999</v>
@@ -30785,29 +30281,17 @@
         <v>-90.510830999999996</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A18" s="18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="A18" s="18"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="5">
-        <v>10</v>
-      </c>
-      <c r="G18" s="19">
-        <v>6.5</v>
-      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="5">
         <v>1</v>
@@ -30822,13 +30306,13 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P18" s="21">
         <v>14.605066000000001</v>
@@ -30837,38 +30321,28 @@
         <v>-90.514596999999995</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A19" s="23">
-        <v>18</v>
-      </c>
+      <c r="A19" s="23"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="9">
-        <v>10</v>
-      </c>
-      <c r="G19" s="24">
-        <v>9</v>
-      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P19" s="25">
         <v>14.604156</v>
@@ -30877,27 +30351,17 @@
         <v>-90.511234999999999</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A20" s="36">
-        <v>19</v>
-      </c>
+      <c r="A20" s="36"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="5">
-        <v>10</v>
-      </c>
-      <c r="G20" s="19">
-        <v>9</v>
-      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="19"/>
       <c r="I20" s="5">
         <v>1</v>
@@ -30913,10 +30377,10 @@
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P20" s="21">
         <v>14.603793</v>
@@ -30925,24 +30389,16 @@
         <v>-90.511225999999994</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A21" s="23">
-        <v>20</v>
-      </c>
+      <c r="A21" s="23"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="9">
-        <v>10</v>
-      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="9">
@@ -30959,10 +30415,10 @@
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P21" s="25">
         <v>14.600828</v>
@@ -30971,24 +30427,16 @@
         <v>-90.514747999999997</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A22" s="18">
-        <v>21</v>
-      </c>
+      <c r="A22" s="18"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="5">
-        <v>10</v>
-      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="5">
@@ -31006,7 +30454,7 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P22" s="29">
         <v>14.601642999999999</v>
@@ -31015,32 +30463,18 @@
         <v>-90.514219999999995</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A23" s="23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="9">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="A23" s="23"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="9">
-        <v>10</v>
-      </c>
-      <c r="G23" s="24">
-        <v>9</v>
-      </c>
-      <c r="H23" s="24">
-        <v>15</v>
-      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="9">
         <v>1</v>
       </c>
@@ -31055,10 +30489,10 @@
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P23" s="25">
         <v>14.587618000000001</v>
@@ -31067,32 +30501,18 @@
         <v>-90.502075000000005</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A24" s="18">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5">
-        <v>2</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="A24" s="18"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="5">
-        <v>14</v>
-      </c>
-      <c r="G24" s="19">
-        <v>9</v>
-      </c>
-      <c r="H24" s="19">
-        <v>16</v>
-      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
       <c r="I24" s="5">
         <v>1</v>
       </c>
@@ -31106,13 +30526,13 @@
         <v>1</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P24" s="21">
         <v>14.585547999999999</v>
@@ -31121,32 +30541,18 @@
         <v>-90.504002999999997</v>
       </c>
       <c r="R24" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A25" s="23">
-        <v>24</v>
-      </c>
-      <c r="B25" s="9">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="A25" s="23"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="9">
-        <v>14</v>
-      </c>
-      <c r="G25" s="24">
-        <v>10</v>
-      </c>
-      <c r="H25" s="24">
-        <v>16</v>
-      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="9">
         <v>1</v>
       </c>
@@ -31160,13 +30566,13 @@
         <v>1</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P25" s="25">
         <v>14.582381</v>
@@ -31175,32 +30581,18 @@
         <v>-90.509105000000005</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A26" s="18">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5">
-        <v>2</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="A26" s="18"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="5">
-        <v>14</v>
-      </c>
-      <c r="G26" s="19">
-        <v>10</v>
-      </c>
-      <c r="H26" s="19">
-        <v>16</v>
-      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
       <c r="I26" s="5">
         <v>1</v>
       </c>
@@ -31214,13 +30606,13 @@
         <v>1</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P26" s="21">
         <v>14.585540999999999</v>
@@ -31229,30 +30621,18 @@
         <v>-90.517522</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A27" s="23">
-        <v>26</v>
-      </c>
+      <c r="A27" s="23"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="9">
-        <v>10</v>
-      </c>
-      <c r="G27" s="24">
-        <v>9</v>
-      </c>
-      <c r="H27" s="24">
-        <v>16</v>
-      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="9">
         <v>1</v>
       </c>
@@ -31266,13 +30646,13 @@
         <v>1</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P27" s="25">
         <v>14.590331000000001</v>
@@ -31281,30 +30661,18 @@
         <v>-90.503905000000003</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A28" s="18">
-        <v>27</v>
-      </c>
+      <c r="A28" s="18"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="5">
-        <v>14</v>
-      </c>
-      <c r="G28" s="19">
-        <v>11</v>
-      </c>
-      <c r="H28" s="19">
-        <v>14</v>
-      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
       <c r="I28" s="5">
         <v>1</v>
       </c>
@@ -31318,13 +30686,13 @@
         <v>1</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P28" s="21">
         <v>14.581267</v>
@@ -31333,24 +30701,16 @@
         <v>-90.500017999999997</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A29" s="33">
-        <v>28</v>
-      </c>
+      <c r="A29" s="33"/>
       <c r="B29" s="34"/>
-      <c r="C29" s="34" t="s">
-        <v>50</v>
-      </c>
+      <c r="C29" s="34"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="34">
-        <v>10</v>
-      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
       <c r="I29" s="34"/>
@@ -31360,7 +30720,7 @@
       <c r="M29" s="34"/>
       <c r="N29" s="34"/>
       <c r="O29" s="34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P29" s="25">
         <v>14.591931000000001</v>
@@ -31369,24 +30729,16 @@
         <v>-90.511910999999998</v>
       </c>
       <c r="R29" s="30" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A30" s="18">
-        <v>29</v>
-      </c>
+      <c r="A30" s="18"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="5">
-        <v>14</v>
-      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
       <c r="I30" s="5">
@@ -31402,13 +30754,13 @@
         <v>1</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P30" s="21">
         <v>14.577311999999999</v>
@@ -31417,50 +30769,38 @@
         <v>-90.520886000000004</v>
       </c>
       <c r="R30" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A31" s="23">
-        <v>30</v>
-      </c>
+      <c r="A31" s="23"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="9">
+        <v>1</v>
+      </c>
+      <c r="J31" s="9">
+        <v>1</v>
+      </c>
+      <c r="K31" s="9">
+        <v>1</v>
+      </c>
+      <c r="L31" s="9">
+        <v>1</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O31" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="9">
-        <v>10</v>
-      </c>
-      <c r="G31" s="24">
-        <v>10</v>
-      </c>
-      <c r="H31" s="24">
-        <v>17</v>
-      </c>
-      <c r="I31" s="9">
-        <v>1</v>
-      </c>
-      <c r="J31" s="9">
-        <v>1</v>
-      </c>
-      <c r="K31" s="9">
-        <v>1</v>
-      </c>
-      <c r="L31" s="9">
-        <v>1</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N31" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="O31" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="P31" s="25">
         <v>14.588498</v>
@@ -31469,27 +30809,17 @@
         <v>-90.502550999999997</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A32" s="18">
-        <v>31</v>
-      </c>
+      <c r="A32" s="18"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="5">
-        <v>10</v>
-      </c>
-      <c r="G32" s="19">
-        <v>7</v>
-      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="I32" s="5">
         <v>1</v>
@@ -31505,10 +30835,10 @@
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P32" s="21">
         <v>14.59863</v>
@@ -31517,27 +30847,17 @@
         <v>-90.510935000000003</v>
       </c>
       <c r="R32" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A33" s="23">
-        <v>32</v>
-      </c>
+      <c r="A33" s="23"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="9" t="s">
-        <v>72</v>
-      </c>
+      <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="9">
-        <v>10</v>
-      </c>
-      <c r="G33" s="24">
-        <v>8</v>
-      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="24"/>
       <c r="H33" s="24"/>
       <c r="I33" s="9">
         <v>1</v>
@@ -31553,10 +30873,10 @@
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P33" s="25">
         <v>14.59836</v>
@@ -31565,29 +30885,17 @@
         <v>-90.509213000000003</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A34" s="18">
-        <v>33</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="A34" s="18"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="5">
-        <v>10</v>
-      </c>
-      <c r="G34" s="19">
-        <v>6.5</v>
-      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="19"/>
       <c r="H34" s="19"/>
       <c r="I34" s="5">
         <v>1</v>
@@ -31603,10 +30911,10 @@
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P34" s="21">
         <v>14.59836</v>
@@ -31615,29 +30923,17 @@
         <v>-90.509213000000003</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A35" s="23">
-        <v>34</v>
-      </c>
-      <c r="B35" s="9">
-        <v>1</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>74</v>
-      </c>
+      <c r="A35" s="23"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" s="9">
-        <v>9</v>
-      </c>
-      <c r="G35" s="24">
-        <v>7.33</v>
-      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="24"/>
       <c r="H35" s="24"/>
       <c r="I35" s="9">
         <v>1</v>
@@ -31653,10 +30949,10 @@
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P35" s="25">
         <v>14.604901</v>
@@ -31665,29 +30961,17 @@
         <v>-90.516980000000004</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A36" s="18">
-        <v>35</v>
-      </c>
-      <c r="B36" s="5">
-        <v>1</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="A36" s="18"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="5">
-        <v>13</v>
-      </c>
-      <c r="G36" s="19">
-        <v>7</v>
-      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="19"/>
       <c r="H36" s="19"/>
       <c r="I36" s="5">
         <v>1</v>
@@ -31704,7 +30988,7 @@
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P36" s="21">
         <v>14.579139</v>
@@ -31713,24 +30997,16 @@
         <v>-90.523567</v>
       </c>
       <c r="R36" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A37" s="23">
-        <v>36</v>
-      </c>
+      <c r="A37" s="23"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="9" t="s">
-        <v>76</v>
-      </c>
+      <c r="C37" s="9"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="9">
-        <v>10</v>
-      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
       <c r="I37" s="9">
@@ -31747,10 +31023,10 @@
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P37" s="25">
         <v>14.607172</v>
@@ -31759,27 +31035,17 @@
         <v>-90.513423000000003</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A38" s="18">
-        <v>37</v>
-      </c>
+      <c r="A38" s="18"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="5">
-        <v>10</v>
-      </c>
-      <c r="G38" s="19">
-        <v>9.5</v>
-      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="I38" s="5">
         <v>1</v>
@@ -31795,10 +31061,10 @@
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P38" s="21">
         <v>14.605947</v>
@@ -31807,30 +31073,18 @@
         <v>-90.511036000000004</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A39" s="23">
-        <v>38</v>
-      </c>
+      <c r="A39" s="23"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="9" t="s">
-        <v>78</v>
-      </c>
+      <c r="C39" s="9"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="9">
-        <v>10</v>
-      </c>
-      <c r="G39" s="24">
-        <v>8</v>
-      </c>
-      <c r="H39" s="24">
-        <v>16</v>
-      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
       <c r="I39" s="9">
         <v>1</v>
       </c>
@@ -31845,10 +31099,10 @@
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P39" s="25">
         <v>14.585877999999999</v>
@@ -31857,32 +31111,18 @@
         <v>-90.498081999999997</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A40" s="18">
-        <v>39</v>
-      </c>
-      <c r="B40" s="5">
-        <v>1</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="A40" s="18"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" s="5">
-        <v>10</v>
-      </c>
-      <c r="G40" s="19">
-        <v>8</v>
-      </c>
-      <c r="H40" s="19">
-        <v>16</v>
-      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
       <c r="I40" s="5">
         <v>1</v>
       </c>
@@ -31896,13 +31136,13 @@
         <v>1</v>
       </c>
       <c r="M40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N40" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="O40" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P40" s="21">
         <v>14.583448000000001</v>
@@ -31911,32 +31151,18 @@
         <v>-90.496086000000005</v>
       </c>
       <c r="R40" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A41" s="23">
-        <v>40</v>
-      </c>
-      <c r="B41" s="9">
-        <v>0</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>80</v>
-      </c>
+      <c r="A41" s="23"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="9">
-        <v>10</v>
-      </c>
-      <c r="G41" s="24">
-        <v>9</v>
-      </c>
-      <c r="H41" s="24">
-        <v>15</v>
-      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
       <c r="I41" s="9">
         <v>1</v>
       </c>
@@ -31950,13 +31176,13 @@
         <v>1</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P41" s="25">
         <v>14.58675</v>
@@ -31965,32 +31191,18 @@
         <v>-90.498204999999999</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A42" s="18">
-        <v>41</v>
-      </c>
-      <c r="B42" s="5">
-        <v>1</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="A42" s="18"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F42" s="5">
-        <v>10</v>
-      </c>
-      <c r="G42" s="19">
-        <v>10</v>
-      </c>
-      <c r="H42" s="19">
-        <v>15</v>
-      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
       <c r="I42" s="5">
         <v>1</v>
       </c>
@@ -32004,13 +31216,13 @@
         <v>1</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P42" s="21">
         <v>14.594531999999999</v>
@@ -32019,30 +31231,18 @@
         <v>-90.507107000000005</v>
       </c>
       <c r="R42" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A43" s="23">
-        <v>42</v>
-      </c>
+      <c r="A43" s="23"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="9" t="s">
-        <v>85</v>
-      </c>
+      <c r="C43" s="9"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="9">
-        <v>10</v>
-      </c>
-      <c r="G43" s="24">
-        <v>9</v>
-      </c>
-      <c r="H43" s="24">
-        <v>15</v>
-      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="9">
         <v>1</v>
       </c>
@@ -32057,10 +31257,10 @@
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="9" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P43" s="25">
         <v>14.593909</v>
@@ -32069,26 +31269,16 @@
         <v>-90.505549000000002</v>
       </c>
       <c r="R43" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A44" s="18">
-        <v>43</v>
-      </c>
-      <c r="B44" s="5">
-        <v>0</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>86</v>
-      </c>
+      <c r="A44" s="18"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" s="5">
-        <v>10</v>
-      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
       <c r="I44" s="5">
@@ -32104,13 +31294,13 @@
         <v>1</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P44" s="21">
         <v>14.590856</v>
@@ -32119,24 +31309,16 @@
         <v>-90.505543000000003</v>
       </c>
       <c r="R44" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A45" s="33">
-        <v>44</v>
-      </c>
+      <c r="A45" s="33"/>
       <c r="B45" s="34"/>
-      <c r="C45" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>88</v>
-      </c>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
       <c r="E45" s="34"/>
-      <c r="F45" s="34">
-        <v>10</v>
-      </c>
+      <c r="F45" s="34"/>
       <c r="G45" s="35"/>
       <c r="H45" s="35"/>
       <c r="I45" s="34"/>
@@ -32146,7 +31328,7 @@
       <c r="M45" s="34"/>
       <c r="N45" s="34"/>
       <c r="O45" s="34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P45" s="37">
         <v>14.591858</v>
@@ -32155,32 +31337,18 @@
         <v>-90.507267999999996</v>
       </c>
       <c r="R45" s="39" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A46" s="18">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5">
-        <v>1</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="A46" s="18"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F46" s="5">
-        <v>10</v>
-      </c>
-      <c r="G46" s="19">
-        <v>9</v>
-      </c>
-      <c r="H46" s="19">
-        <v>15</v>
-      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
       <c r="I46" s="5">
         <v>1</v>
       </c>
@@ -32195,10 +31363,10 @@
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P46" s="21">
         <v>14.590301</v>
@@ -32207,26 +31375,16 @@
         <v>-90.503919999999994</v>
       </c>
       <c r="R46" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A47" s="23">
-        <v>46</v>
-      </c>
-      <c r="B47" s="9">
-        <v>0</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="A47" s="23"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="9">
-        <v>10</v>
-      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
       <c r="G47" s="24"/>
       <c r="H47" s="24"/>
       <c r="I47" s="9">
@@ -32243,10 +31401,10 @@
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="9" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P47" s="25">
         <v>14.591208999999999</v>
@@ -32255,26 +31413,16 @@
         <v>-90.503434999999996</v>
       </c>
       <c r="R47" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A48" s="18">
-        <v>47</v>
-      </c>
-      <c r="B48" s="5">
-        <v>1</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="A48" s="18"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F48" s="5">
-        <v>14</v>
-      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
       <c r="I48" s="5">
@@ -32290,13 +31438,13 @@
         <v>1</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P48" s="21">
         <v>14.587156999999999</v>
@@ -32305,27 +31453,17 @@
         <v>-90.507324999999994</v>
       </c>
       <c r="R48" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A49" s="23">
-        <v>48</v>
-      </c>
+      <c r="A49" s="23"/>
       <c r="B49" s="9"/>
-      <c r="C49" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="C49" s="9"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" s="9">
-        <v>10</v>
-      </c>
-      <c r="G49" s="24">
-        <v>7.5</v>
-      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="24"/>
       <c r="H49" s="24"/>
       <c r="I49" s="9">
         <v>1</v>
@@ -32341,10 +31479,10 @@
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P49" s="25">
         <v>14.607896</v>
@@ -32353,26 +31491,16 @@
         <v>-90.513433000000006</v>
       </c>
       <c r="R49" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A50" s="18">
-        <v>49</v>
-      </c>
-      <c r="B50" s="5">
-        <v>1</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="A50" s="18"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F50" s="5">
-        <v>10</v>
-      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
       <c r="I50" s="5">
@@ -32389,10 +31517,10 @@
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P50" s="21">
         <v>14.595980000000001</v>
@@ -32401,27 +31529,17 @@
         <v>-90.507536000000002</v>
       </c>
       <c r="R50" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A51" s="23">
-        <v>50</v>
-      </c>
+      <c r="A51" s="23"/>
       <c r="B51" s="9"/>
-      <c r="C51" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="C51" s="9"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F51" s="9">
-        <v>10</v>
-      </c>
-      <c r="G51" s="24">
-        <v>8</v>
-      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="24"/>
       <c r="H51" s="24"/>
       <c r="I51" s="9">
         <v>1</v>
@@ -32437,10 +31555,10 @@
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P51" s="25">
         <v>14.594526</v>
@@ -32449,27 +31567,17 @@
         <v>-90.512788</v>
       </c>
       <c r="R51" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A52" s="18">
-        <v>51</v>
-      </c>
+      <c r="A52" s="18"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="5" t="s">
-        <v>94</v>
-      </c>
+      <c r="C52" s="5"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F52" s="5">
-        <v>10</v>
-      </c>
-      <c r="G52" s="19">
-        <v>7</v>
-      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="19"/>
       <c r="H52" s="19"/>
       <c r="I52" s="5">
         <v>1</v>
@@ -32485,10 +31593,10 @@
       </c>
       <c r="M52" s="5"/>
       <c r="N52" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P52" s="21">
         <v>14.594868999999999</v>
@@ -32497,24 +31605,16 @@
         <v>-90.513469000000001</v>
       </c>
       <c r="R52" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A53" s="33">
-        <v>52</v>
-      </c>
+      <c r="A53" s="33"/>
       <c r="B53" s="34"/>
-      <c r="C53" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>88</v>
-      </c>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
       <c r="E53" s="34"/>
-      <c r="F53" s="34">
-        <v>10</v>
-      </c>
+      <c r="F53" s="34"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
       <c r="I53" s="34"/>
@@ -32524,7 +31624,7 @@
       <c r="M53" s="34"/>
       <c r="N53" s="34"/>
       <c r="O53" s="34" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P53" s="37">
         <v>14.595093</v>
@@ -32533,27 +31633,17 @@
         <v>-90.514078999999995</v>
       </c>
       <c r="R53" s="39" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A54" s="18">
-        <v>53</v>
-      </c>
+      <c r="A54" s="18"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F54" s="5">
-        <v>10</v>
-      </c>
-      <c r="G54" s="19">
-        <v>11</v>
-      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="19"/>
       <c r="H54" s="19"/>
       <c r="I54" s="5">
         <v>1</v>
@@ -32569,10 +31659,10 @@
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P54" s="21">
         <v>14.596147999999999</v>
@@ -32581,24 +31671,16 @@
         <v>-90.515254999999996</v>
       </c>
       <c r="R54" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A55" s="33">
-        <v>54</v>
-      </c>
+      <c r="A55" s="33"/>
       <c r="B55" s="34"/>
-      <c r="C55" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>88</v>
-      </c>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
       <c r="E55" s="34"/>
-      <c r="F55" s="34">
-        <v>10</v>
-      </c>
+      <c r="F55" s="34"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
       <c r="I55" s="34"/>
@@ -32608,7 +31690,7 @@
       <c r="M55" s="34"/>
       <c r="N55" s="34"/>
       <c r="O55" s="34" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P55" s="37">
         <v>14.595286</v>
@@ -32617,27 +31699,17 @@
         <v>-90.514930000000007</v>
       </c>
       <c r="R55" s="39" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A56" s="18">
-        <v>55</v>
-      </c>
+      <c r="A56" s="18"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F56" s="5">
-        <v>10</v>
-      </c>
-      <c r="G56" s="19">
-        <v>8</v>
-      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="19"/>
       <c r="H56" s="19"/>
       <c r="I56" s="5">
         <v>1</v>
@@ -32653,10 +31725,10 @@
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P56" s="31">
         <v>14.597265999999999</v>
@@ -32665,29 +31737,17 @@
         <v>-90.509235000000004</v>
       </c>
       <c r="R56" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A57" s="23">
-        <v>56</v>
-      </c>
-      <c r="B57" s="9">
-        <v>0</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>97</v>
-      </c>
+      <c r="A57" s="23"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F57" s="9">
-        <v>10</v>
-      </c>
-      <c r="G57" s="24">
-        <v>8.5</v>
-      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="24"/>
       <c r="H57" s="24"/>
       <c r="I57" s="9">
         <v>1</v>
@@ -32704,7 +31764,7 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P57" s="9">
         <v>14.604752</v>
@@ -32713,29 +31773,17 @@
         <v>-90.514717000000005</v>
       </c>
       <c r="R57" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A58" s="18">
-        <v>57</v>
-      </c>
-      <c r="B58" s="5">
-        <v>1</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="A58" s="18"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F58" s="5">
-        <v>10</v>
-      </c>
-      <c r="G58" s="19">
-        <v>8.5</v>
-      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="19"/>
       <c r="H58" s="19"/>
       <c r="I58" s="5">
         <v>1</v>
@@ -32751,39 +31799,25 @@
       </c>
       <c r="M58" s="5"/>
       <c r="N58" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A59" s="23">
-        <v>58</v>
-      </c>
-      <c r="B59" s="9">
-        <v>1</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F59" s="9">
-        <v>14</v>
-      </c>
-      <c r="G59" s="9">
-        <v>11</v>
-      </c>
+      <c r="A59" s="23"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
       <c r="H59" s="24"/>
       <c r="I59" s="9">
         <v>1</v>
@@ -32799,37 +31833,25 @@
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
       <c r="R59" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A60" s="18">
-        <v>59</v>
-      </c>
-      <c r="B60" s="5">
-        <v>1</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>101</v>
-      </c>
+      <c r="A60" s="18"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F60" s="5">
-        <v>13</v>
-      </c>
-      <c r="G60" s="5">
-        <v>6</v>
-      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5">
         <v>1</v>
@@ -32845,34 +31867,24 @@
       </c>
       <c r="M60" s="5"/>
       <c r="N60" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
       <c r="R60" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A61" s="23">
-        <v>61</v>
-      </c>
-      <c r="B61" s="9">
-        <v>1</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>102</v>
-      </c>
+      <c r="A61" s="23"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F61" s="9">
-        <v>13</v>
-      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="32"/>
@@ -32882,32 +31894,22 @@
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
       <c r="O61" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P61" s="9"/>
       <c r="Q61" s="9"/>
       <c r="R61" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A62" s="18">
-        <v>60</v>
-      </c>
+      <c r="A62" s="18"/>
       <c r="B62" s="5"/>
-      <c r="C62" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="C62" s="5"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F62" s="5">
-        <v>9</v>
-      </c>
-      <c r="G62" s="5">
-        <v>6</v>
-      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5">
         <v>1</v>
@@ -32924,34 +31926,22 @@
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A63" s="23">
-        <v>62</v>
-      </c>
-      <c r="B63" s="9">
-        <v>1</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="A63" s="23"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F63" s="9">
-        <v>5</v>
-      </c>
-      <c r="G63" s="9">
-        <v>6</v>
-      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
       <c r="H63" s="24"/>
       <c r="I63" s="9">
         <v>1</v>
@@ -32967,34 +31957,24 @@
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O63" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P63" s="9"/>
       <c r="Q63" s="9"/>
       <c r="R63" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A64" s="18">
-        <v>63</v>
-      </c>
-      <c r="B64" s="5">
-        <v>1</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="A64" s="18"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F64" s="5">
-        <v>10</v>
-      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="19"/>
       <c r="I64" s="5"/>
@@ -33007,26 +31987,16 @@
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A65" s="23">
-        <v>65</v>
-      </c>
-      <c r="B65" s="9">
-        <v>1</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>106</v>
-      </c>
+      <c r="A65" s="23"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
       <c r="D65" s="9"/>
-      <c r="E65" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F65" s="9">
-        <v>13</v>
-      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
       <c r="G65" s="24"/>
       <c r="H65" s="24"/>
       <c r="I65" s="9"/>
@@ -33039,26 +32009,16 @@
       <c r="P65" s="9"/>
       <c r="Q65" s="9"/>
       <c r="R65" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A66" s="18">
-        <v>1001</v>
-      </c>
-      <c r="B66" s="5">
-        <v>1</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>107</v>
-      </c>
+      <c r="A66" s="18"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F66" s="5">
-        <v>10</v>
-      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
       <c r="I66" s="5">
@@ -33076,27 +32036,21 @@
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A67" s="23">
-        <v>1002</v>
-      </c>
+      <c r="A67" s="23"/>
       <c r="B67" s="9"/>
-      <c r="C67" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="9">
-        <v>10</v>
-      </c>
+      <c r="F67" s="9"/>
       <c r="G67" s="24"/>
       <c r="H67" s="24"/>
       <c r="I67" s="9"/>
@@ -33109,26 +32063,16 @@
       <c r="P67" s="9"/>
       <c r="Q67" s="9"/>
       <c r="R67" s="11" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A68" s="18">
-        <v>1003</v>
-      </c>
-      <c r="B68" s="5">
-        <v>1</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="A68" s="18"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F68" s="5">
-        <v>10</v>
-      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="19"/>
       <c r="I68" s="5"/>
@@ -33141,24 +32085,16 @@
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
       <c r="R68" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A69" s="23">
-        <v>64</v>
-      </c>
+      <c r="A69" s="23"/>
       <c r="B69" s="9"/>
-      <c r="C69" s="9" t="s">
-        <v>110</v>
-      </c>
+      <c r="C69" s="9"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F69" s="9">
-        <v>13</v>
-      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
       <c r="G69" s="9"/>
       <c r="H69" s="24"/>
       <c r="I69" s="9"/>
@@ -33171,24 +32107,16 @@
       <c r="P69" s="9"/>
       <c r="Q69" s="9"/>
       <c r="R69" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A70" s="18">
-        <v>1006</v>
-      </c>
+      <c r="A70" s="18"/>
       <c r="B70" s="5"/>
-      <c r="C70" s="5" t="s">
-        <v>111</v>
-      </c>
+      <c r="C70" s="5"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F70" s="5">
-        <v>14</v>
-      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="19"/>
       <c r="I70" s="5"/>
@@ -33201,29 +32129,17 @@
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
       <c r="R70" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A71" s="23">
-        <v>1004</v>
-      </c>
-      <c r="B71" s="9">
-        <v>1</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>112</v>
-      </c>
+      <c r="A71" s="23"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
       <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F71" s="9">
-        <v>9</v>
-      </c>
-      <c r="G71" s="9">
-        <v>5</v>
-      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
       <c r="H71" s="24"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -33235,26 +32151,16 @@
       <c r="P71" s="9"/>
       <c r="Q71" s="9"/>
       <c r="R71" s="11" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A72" s="18">
-        <v>1005</v>
-      </c>
-      <c r="B72" s="5">
-        <v>1</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="A72" s="18"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F72" s="5">
-        <v>10</v>
-      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="19"/>
       <c r="I72" s="5"/>
@@ -33267,26 +32173,16 @@
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
       <c r="R72" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A73" s="23">
-        <v>1007</v>
-      </c>
-      <c r="B73" s="9">
-        <v>1</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>114</v>
-      </c>
+      <c r="A73" s="23"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
       <c r="D73" s="9"/>
-      <c r="E73" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F73" s="9">
-        <v>14</v>
-      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="24"/>
       <c r="I73" s="9"/>
@@ -33299,24 +32195,16 @@
       <c r="P73" s="9"/>
       <c r="Q73" s="9"/>
       <c r="R73" s="11" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A74" s="18">
-        <v>1009</v>
-      </c>
+      <c r="A74" s="18"/>
       <c r="B74" s="5"/>
-      <c r="C74" s="5" t="s">
-        <v>115</v>
-      </c>
+      <c r="C74" s="5"/>
       <c r="D74" s="5"/>
-      <c r="E74" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F74" s="5">
-        <v>13</v>
-      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="19"/>
       <c r="I74" s="5"/>
@@ -33329,26 +32217,16 @@
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
       <c r="R74" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A75" s="23">
-        <v>1008</v>
-      </c>
-      <c r="B75" s="9">
-        <v>1</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>116</v>
-      </c>
+      <c r="A75" s="23"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
       <c r="D75" s="9"/>
-      <c r="E75" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F75" s="9">
-        <v>14</v>
-      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" s="24"/>
       <c r="I75" s="9"/>
@@ -33361,26 +32239,16 @@
       <c r="P75" s="9"/>
       <c r="Q75" s="9"/>
       <c r="R75" s="11" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A76" s="18">
-        <v>1010</v>
-      </c>
-      <c r="B76" s="5">
-        <v>1</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="A76" s="18"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
       <c r="D76" s="5"/>
-      <c r="E76" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F76" s="5">
-        <v>14</v>
-      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="19"/>
       <c r="I76" s="5"/>
@@ -33393,26 +32261,16 @@
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
       <c r="R76" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A77" s="23">
-        <v>1011</v>
-      </c>
-      <c r="B77" s="9">
-        <v>1</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>118</v>
-      </c>
+      <c r="A77" s="23"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
       <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F77" s="9">
-        <v>14</v>
-      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
       <c r="G77" s="9"/>
       <c r="H77" s="24"/>
       <c r="I77" s="9"/>
@@ -33425,26 +32283,16 @@
       <c r="P77" s="9"/>
       <c r="Q77" s="9"/>
       <c r="R77" s="11" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A78" s="18">
-        <v>1012</v>
-      </c>
-      <c r="B78" s="5">
-        <v>1</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>119</v>
-      </c>
+      <c r="A78" s="18"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
       <c r="D78" s="5"/>
-      <c r="E78" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F78" s="5">
-        <v>14</v>
-      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
       <c r="G78" s="19"/>
       <c r="H78" s="19"/>
       <c r="I78" s="5"/>
@@ -33457,26 +32305,16 @@
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
       <c r="R78" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A79" s="23">
-        <v>1013</v>
-      </c>
-      <c r="B79" s="9">
-        <v>1</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="A79" s="23"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
       <c r="D79" s="9"/>
-      <c r="E79" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F79" s="9">
-        <v>10</v>
-      </c>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
       <c r="G79" s="24"/>
       <c r="H79" s="24"/>
       <c r="I79" s="9"/>
@@ -33489,24 +32327,16 @@
       <c r="P79" s="9"/>
       <c r="Q79" s="9"/>
       <c r="R79" s="11" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A80" s="18">
-        <v>1014</v>
-      </c>
+      <c r="A80" s="18"/>
       <c r="B80" s="5"/>
-      <c r="C80" s="5" t="s">
-        <v>121</v>
-      </c>
+      <c r="C80" s="5"/>
       <c r="D80" s="5"/>
-      <c r="E80" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F80" s="5">
-        <v>10</v>
-      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
       <c r="I80" s="5"/>
@@ -33519,26 +32349,16 @@
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
       <c r="R80" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A81" s="23">
-        <v>1015</v>
-      </c>
-      <c r="B81" s="9">
-        <v>1</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>122</v>
-      </c>
+      <c r="A81" s="23"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
       <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F81" s="9">
-        <v>10</v>
-      </c>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
       <c r="G81" s="24"/>
       <c r="H81" s="24"/>
       <c r="I81" s="9"/>
@@ -33551,24 +32371,16 @@
       <c r="P81" s="9"/>
       <c r="Q81" s="9"/>
       <c r="R81" s="11" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A82" s="18">
-        <v>1016</v>
-      </c>
+      <c r="A82" s="18"/>
       <c r="B82" s="5"/>
-      <c r="C82" s="5" t="s">
-        <v>123</v>
-      </c>
+      <c r="C82" s="5"/>
       <c r="D82" s="5"/>
-      <c r="E82" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F82" s="5">
-        <v>10</v>
-      </c>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
       <c r="G82" s="19"/>
       <c r="H82" s="19"/>
       <c r="I82" s="5"/>
@@ -33581,24 +32393,16 @@
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A83" s="23">
-        <v>1017</v>
-      </c>
+      <c r="A83" s="23"/>
       <c r="B83" s="9"/>
-      <c r="C83" s="9" t="s">
-        <v>124</v>
-      </c>
+      <c r="C83" s="9"/>
       <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F83" s="9">
-        <v>10</v>
-      </c>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
       <c r="G83" s="24"/>
       <c r="H83" s="24"/>
       <c r="I83" s="9"/>
@@ -33611,24 +32415,16 @@
       <c r="P83" s="9"/>
       <c r="Q83" s="9"/>
       <c r="R83" s="11" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A84" s="18">
-        <v>66</v>
-      </c>
+      <c r="A84" s="18"/>
       <c r="B84" s="5"/>
-      <c r="C84" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="C84" s="5"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F84" s="5">
-        <v>13</v>
-      </c>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
       <c r="G84" s="19"/>
       <c r="H84" s="19"/>
       <c r="I84" s="5"/>
@@ -33641,24 +32437,16 @@
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
       <c r="R84" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A85" s="23">
-        <v>67</v>
-      </c>
+      <c r="A85" s="23"/>
       <c r="B85" s="9"/>
-      <c r="C85" s="9" t="s">
-        <v>126</v>
-      </c>
+      <c r="C85" s="9"/>
       <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F85" s="9">
-        <v>13</v>
-      </c>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
       <c r="G85" s="24"/>
       <c r="H85" s="24"/>
       <c r="I85" s="9"/>
@@ -33671,24 +32459,16 @@
       <c r="P85" s="9"/>
       <c r="Q85" s="9"/>
       <c r="R85" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A86" s="18">
-        <v>68</v>
-      </c>
+      <c r="A86" s="18"/>
       <c r="B86" s="5"/>
-      <c r="C86" s="5" t="s">
-        <v>127</v>
-      </c>
+      <c r="C86" s="5"/>
       <c r="D86" s="5"/>
-      <c r="E86" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F86" s="5">
-        <v>10</v>
-      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
       <c r="G86" s="19"/>
       <c r="H86" s="19"/>
       <c r="I86" s="5"/>
@@ -33701,24 +32481,16 @@
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
       <c r="R86" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A87" s="23">
-        <v>1018</v>
-      </c>
+      <c r="A87" s="23"/>
       <c r="B87" s="9"/>
-      <c r="C87" s="9" t="s">
-        <v>128</v>
-      </c>
+      <c r="C87" s="9"/>
       <c r="D87" s="9"/>
-      <c r="E87" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F87" s="9">
-        <v>10</v>
-      </c>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
       <c r="G87" s="24"/>
       <c r="H87" s="24"/>
       <c r="I87" s="9"/>
@@ -33731,24 +32503,16 @@
       <c r="P87" s="9"/>
       <c r="Q87" s="9"/>
       <c r="R87" s="11" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A88" s="18">
-        <v>1019</v>
-      </c>
+      <c r="A88" s="18"/>
       <c r="B88" s="5"/>
-      <c r="C88" s="5" t="s">
-        <v>129</v>
-      </c>
+      <c r="C88" s="5"/>
       <c r="D88" s="5"/>
-      <c r="E88" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F88" s="5">
-        <v>14</v>
-      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
       <c r="I88" s="5"/>
@@ -33761,24 +32525,16 @@
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
       <c r="R88" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A89" s="23">
-        <v>1020</v>
-      </c>
+      <c r="A89" s="23"/>
       <c r="B89" s="9"/>
-      <c r="C89" s="9" t="s">
-        <v>130</v>
-      </c>
+      <c r="C89" s="9"/>
       <c r="D89" s="9"/>
-      <c r="E89" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F89" s="9">
-        <v>9</v>
-      </c>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
       <c r="G89" s="24"/>
       <c r="H89" s="24"/>
       <c r="I89" s="9"/>
@@ -33791,24 +32547,16 @@
       <c r="P89" s="9"/>
       <c r="Q89" s="9"/>
       <c r="R89" s="11" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A90" s="18">
-        <v>1021</v>
-      </c>
+      <c r="A90" s="18"/>
       <c r="B90" s="5"/>
-      <c r="C90" s="5" t="s">
-        <v>131</v>
-      </c>
+      <c r="C90" s="5"/>
       <c r="D90" s="5"/>
-      <c r="E90" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F90" s="5">
-        <v>13</v>
-      </c>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
       <c r="G90" s="19"/>
       <c r="H90" s="19"/>
       <c r="I90" s="5"/>
@@ -33821,21 +32569,15 @@
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
       <c r="R90" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A91" s="23">
-        <v>1022</v>
-      </c>
+      <c r="A91" s="23"/>
       <c r="B91" s="9"/>
-      <c r="C91" s="9" t="s">
-        <v>132</v>
-      </c>
+      <c r="C91" s="9"/>
       <c r="D91" s="9"/>
-      <c r="E91" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="24"/>
       <c r="H91" s="24"/>
@@ -33849,24 +32591,16 @@
       <c r="P91" s="9"/>
       <c r="Q91" s="9"/>
       <c r="R91" s="11" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A92" s="18">
-        <v>69</v>
-      </c>
+      <c r="A92" s="18"/>
       <c r="B92" s="5"/>
-      <c r="C92" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="C92" s="5"/>
       <c r="D92" s="5"/>
-      <c r="E92" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F92" s="5">
-        <v>13</v>
-      </c>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
       <c r="G92" s="19"/>
       <c r="H92" s="19"/>
       <c r="I92" s="5"/>
@@ -33879,24 +32613,16 @@
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
       <c r="R92" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A93" s="23">
-        <v>1023</v>
-      </c>
+      <c r="A93" s="23"/>
       <c r="B93" s="9"/>
-      <c r="C93" s="9" t="s">
-        <v>134</v>
-      </c>
+      <c r="C93" s="9"/>
       <c r="D93" s="9"/>
-      <c r="E93" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F93" s="9">
-        <v>9</v>
-      </c>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
       <c r="G93" s="24"/>
       <c r="H93" s="24"/>
       <c r="I93" s="9"/>
@@ -33909,24 +32635,16 @@
       <c r="P93" s="9"/>
       <c r="Q93" s="9"/>
       <c r="R93" s="11" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A94" s="18">
-        <v>70</v>
-      </c>
+      <c r="A94" s="18"/>
       <c r="B94" s="5"/>
-      <c r="C94" s="5" t="s">
-        <v>136</v>
-      </c>
+      <c r="C94" s="5"/>
       <c r="D94" s="5"/>
-      <c r="E94" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F94" s="5">
-        <v>1</v>
-      </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
       <c r="G94" s="19"/>
       <c r="H94" s="19"/>
       <c r="I94" s="5"/>
@@ -33939,24 +32657,16 @@
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
       <c r="R94" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A95" s="23">
-        <v>71</v>
-      </c>
+      <c r="A95" s="23"/>
       <c r="B95" s="9"/>
-      <c r="C95" s="9" t="s">
-        <v>137</v>
-      </c>
+      <c r="C95" s="9"/>
       <c r="D95" s="9"/>
-      <c r="E95" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F95" s="9">
-        <v>13</v>
-      </c>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
       <c r="G95" s="24"/>
       <c r="H95" s="24"/>
       <c r="I95" s="9"/>
@@ -33969,24 +32679,16 @@
       <c r="P95" s="9"/>
       <c r="Q95" s="9"/>
       <c r="R95" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A96" s="18">
-        <v>72</v>
-      </c>
+      <c r="A96" s="18"/>
       <c r="B96" s="5"/>
-      <c r="C96" s="5" t="s">
-        <v>138</v>
-      </c>
+      <c r="C96" s="5"/>
       <c r="D96" s="5"/>
-      <c r="E96" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F96" s="5">
-        <v>13</v>
-      </c>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
       <c r="G96" s="19"/>
       <c r="H96" s="19"/>
       <c r="I96" s="5"/>
@@ -33999,24 +32701,16 @@
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
       <c r="R96" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A97" s="23">
-        <v>73</v>
-      </c>
+      <c r="A97" s="23"/>
       <c r="B97" s="9"/>
-      <c r="C97" s="9" t="s">
-        <v>139</v>
-      </c>
+      <c r="C97" s="9"/>
       <c r="D97" s="9"/>
-      <c r="E97" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F97" s="9">
-        <v>13</v>
-      </c>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
       <c r="G97" s="24"/>
       <c r="H97" s="24"/>
       <c r="I97" s="9"/>
@@ -34029,24 +32723,16 @@
       <c r="P97" s="9"/>
       <c r="Q97" s="9"/>
       <c r="R97" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A98" s="18">
-        <v>1024</v>
-      </c>
+      <c r="A98" s="18"/>
       <c r="B98" s="5"/>
-      <c r="C98" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="C98" s="5"/>
       <c r="D98" s="5"/>
-      <c r="E98" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F98" s="5">
-        <v>10</v>
-      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
       <c r="I98" s="5"/>
@@ -34059,21 +32745,15 @@
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
       <c r="R98" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A99" s="23">
-        <v>0</v>
-      </c>
+      <c r="A99" s="23"/>
       <c r="B99" s="9"/>
-      <c r="C99" s="9" t="s">
-        <v>141</v>
-      </c>
+      <c r="C99" s="9"/>
       <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="E99" s="9"/>
       <c r="F99" s="9"/>
       <c r="G99" s="24"/>
       <c r="H99" s="24"/>
@@ -34087,24 +32767,16 @@
       <c r="P99" s="9"/>
       <c r="Q99" s="9"/>
       <c r="R99" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A100" s="18">
-        <v>1025</v>
-      </c>
+      <c r="A100" s="18"/>
       <c r="B100" s="5"/>
-      <c r="C100" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="C100" s="5"/>
       <c r="D100" s="5"/>
-      <c r="E100" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F100" s="5">
-        <v>10</v>
-      </c>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
       <c r="G100" s="19"/>
       <c r="H100" s="19"/>
       <c r="I100" s="5"/>
@@ -34117,24 +32789,16 @@
       <c r="P100" s="5"/>
       <c r="Q100" s="5"/>
       <c r="R100" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A101" s="23">
-        <v>1026</v>
-      </c>
+      <c r="A101" s="23"/>
       <c r="B101" s="9"/>
-      <c r="C101" s="9" t="s">
-        <v>143</v>
-      </c>
+      <c r="C101" s="9"/>
       <c r="D101" s="9"/>
-      <c r="E101" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F101" s="9">
-        <v>10</v>
-      </c>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
       <c r="G101" s="24"/>
       <c r="H101" s="24"/>
       <c r="I101" s="9"/>
@@ -34147,24 +32811,16 @@
       <c r="P101" s="9"/>
       <c r="Q101" s="9"/>
       <c r="R101" s="11" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A102" s="18">
-        <v>1027</v>
-      </c>
+      <c r="A102" s="18"/>
       <c r="B102" s="5"/>
-      <c r="C102" s="5" t="s">
-        <v>144</v>
-      </c>
+      <c r="C102" s="5"/>
       <c r="D102" s="5"/>
-      <c r="E102" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F102" s="5">
-        <v>10</v>
-      </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
       <c r="G102" s="19"/>
       <c r="H102" s="19"/>
       <c r="I102" s="5"/>
@@ -34177,24 +32833,16 @@
       <c r="P102" s="5"/>
       <c r="Q102" s="5"/>
       <c r="R102" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A103" s="23">
-        <v>74</v>
-      </c>
+      <c r="A103" s="23"/>
       <c r="B103" s="9"/>
-      <c r="C103" s="9" t="s">
-        <v>145</v>
-      </c>
+      <c r="C103" s="9"/>
       <c r="D103" s="9"/>
-      <c r="E103" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F103" s="9">
-        <v>9</v>
-      </c>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
       <c r="G103" s="24"/>
       <c r="H103" s="24"/>
       <c r="I103" s="9"/>
@@ -34207,24 +32855,16 @@
       <c r="P103" s="9"/>
       <c r="Q103" s="9"/>
       <c r="R103" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A104" s="18">
-        <v>1028</v>
-      </c>
+      <c r="A104" s="18"/>
       <c r="B104" s="5"/>
-      <c r="C104" s="5" t="s">
-        <v>146</v>
-      </c>
+      <c r="C104" s="5"/>
       <c r="D104" s="5"/>
-      <c r="E104" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F104" s="5">
-        <v>10</v>
-      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
       <c r="I104" s="5"/>
@@ -34237,24 +32877,16 @@
       <c r="P104" s="5"/>
       <c r="Q104" s="5"/>
       <c r="R104" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A105" s="23">
-        <v>75</v>
-      </c>
+      <c r="A105" s="23"/>
       <c r="B105" s="9"/>
-      <c r="C105" s="9" t="s">
-        <v>147</v>
-      </c>
+      <c r="C105" s="9"/>
       <c r="D105" s="9"/>
-      <c r="E105" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F105" s="9">
-        <v>1</v>
-      </c>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
       <c r="G105" s="24"/>
       <c r="H105" s="24"/>
       <c r="I105" s="9">
@@ -34271,30 +32903,22 @@
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O105" s="9"/>
       <c r="P105" s="9"/>
       <c r="Q105" s="9"/>
       <c r="R105" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A106" s="18">
-        <v>76</v>
-      </c>
+      <c r="A106" s="18"/>
       <c r="B106" s="5"/>
-      <c r="C106" s="5" t="s">
-        <v>148</v>
-      </c>
+      <c r="C106" s="5"/>
       <c r="D106" s="5"/>
-      <c r="E106" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F106" s="5">
-        <v>1</v>
-      </c>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
       <c r="G106" s="19"/>
       <c r="H106" s="19"/>
       <c r="I106" s="5"/>
@@ -34307,24 +32931,16 @@
       <c r="P106" s="5"/>
       <c r="Q106" s="5"/>
       <c r="R106" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A107" s="23">
-        <v>77</v>
-      </c>
+      <c r="A107" s="23"/>
       <c r="B107" s="9"/>
-      <c r="C107" s="9" t="s">
-        <v>149</v>
-      </c>
+      <c r="C107" s="9"/>
       <c r="D107" s="9"/>
-      <c r="E107" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F107" s="9">
-        <v>9</v>
-      </c>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
       <c r="G107" s="24"/>
       <c r="H107" s="24"/>
       <c r="I107" s="9"/>
@@ -34337,24 +32953,16 @@
       <c r="P107" s="9"/>
       <c r="Q107" s="9"/>
       <c r="R107" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A108" s="18">
-        <v>1029</v>
-      </c>
+      <c r="A108" s="18"/>
       <c r="B108" s="5"/>
-      <c r="C108" s="5" t="s">
-        <v>150</v>
-      </c>
+      <c r="C108" s="5"/>
       <c r="D108" s="5"/>
-      <c r="E108" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F108" s="5">
-        <v>10</v>
-      </c>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
       <c r="G108" s="19"/>
       <c r="H108" s="19"/>
       <c r="I108" s="5"/>
@@ -34367,24 +32975,16 @@
       <c r="P108" s="5"/>
       <c r="Q108" s="5"/>
       <c r="R108" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A109" s="23">
-        <v>1030</v>
-      </c>
+      <c r="A109" s="23"/>
       <c r="B109" s="9"/>
-      <c r="C109" s="9" t="s">
-        <v>151</v>
-      </c>
+      <c r="C109" s="9"/>
       <c r="D109" s="9"/>
-      <c r="E109" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F109" s="9">
-        <v>14</v>
-      </c>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
       <c r="G109" s="24"/>
       <c r="H109" s="24"/>
       <c r="I109" s="9"/>
@@ -34397,24 +32997,16 @@
       <c r="P109" s="9"/>
       <c r="Q109" s="9"/>
       <c r="R109" s="11" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A110" s="18">
-        <v>1031</v>
-      </c>
+      <c r="A110" s="18"/>
       <c r="B110" s="5"/>
-      <c r="C110" s="5" t="s">
-        <v>152</v>
-      </c>
+      <c r="C110" s="5"/>
       <c r="D110" s="5"/>
-      <c r="E110" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F110" s="5">
-        <v>1</v>
-      </c>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
       <c r="G110" s="19"/>
       <c r="H110" s="19"/>
       <c r="I110" s="5"/>
@@ -34427,24 +33019,16 @@
       <c r="P110" s="5"/>
       <c r="Q110" s="5"/>
       <c r="R110" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A111" s="23">
-        <v>1032</v>
-      </c>
+      <c r="A111" s="23"/>
       <c r="B111" s="9"/>
-      <c r="C111" s="9" t="s">
-        <v>153</v>
-      </c>
+      <c r="C111" s="9"/>
       <c r="D111" s="9"/>
-      <c r="E111" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F111" s="9">
-        <v>10</v>
-      </c>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
       <c r="G111" s="24"/>
       <c r="H111" s="24"/>
       <c r="I111" s="9"/>
@@ -34457,24 +33041,16 @@
       <c r="P111" s="9"/>
       <c r="Q111" s="9"/>
       <c r="R111" s="11" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A112" s="18">
-        <v>1033</v>
-      </c>
+      <c r="A112" s="18"/>
       <c r="B112" s="5"/>
-      <c r="C112" s="5" t="s">
-        <v>154</v>
-      </c>
+      <c r="C112" s="5"/>
       <c r="D112" s="5"/>
-      <c r="E112" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F112" s="5">
-        <v>14</v>
-      </c>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
       <c r="G112" s="19"/>
       <c r="H112" s="19"/>
       <c r="I112" s="5"/>
@@ -34487,24 +33063,16 @@
       <c r="P112" s="5"/>
       <c r="Q112" s="5"/>
       <c r="R112" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A113" s="23">
-        <v>1034</v>
-      </c>
+      <c r="A113" s="23"/>
       <c r="B113" s="9"/>
-      <c r="C113" s="9" t="s">
-        <v>155</v>
-      </c>
+      <c r="C113" s="9"/>
       <c r="D113" s="9"/>
-      <c r="E113" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F113" s="9">
-        <v>10</v>
-      </c>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
       <c r="G113" s="24"/>
       <c r="H113" s="24"/>
       <c r="I113" s="9"/>
@@ -34517,24 +33085,16 @@
       <c r="P113" s="9"/>
       <c r="Q113" s="9"/>
       <c r="R113" s="11" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A114" s="18">
-        <v>1035</v>
-      </c>
+      <c r="A114" s="18"/>
       <c r="B114" s="5"/>
-      <c r="C114" s="5" t="s">
-        <v>156</v>
-      </c>
+      <c r="C114" s="5"/>
       <c r="D114" s="5"/>
-      <c r="E114" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F114" s="5">
-        <v>14</v>
-      </c>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
       <c r="G114" s="19"/>
       <c r="H114" s="19"/>
       <c r="I114" s="5"/>
@@ -34547,24 +33107,16 @@
       <c r="P114" s="5"/>
       <c r="Q114" s="5"/>
       <c r="R114" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A115" s="23">
-        <v>78</v>
-      </c>
+      <c r="A115" s="23"/>
       <c r="B115" s="9"/>
-      <c r="C115" s="9" t="s">
-        <v>157</v>
-      </c>
+      <c r="C115" s="9"/>
       <c r="D115" s="9"/>
-      <c r="E115" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F115" s="9">
-        <v>13</v>
-      </c>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
       <c r="G115" s="24"/>
       <c r="H115" s="24"/>
       <c r="I115" s="9"/>
@@ -34577,24 +33129,16 @@
       <c r="P115" s="9"/>
       <c r="Q115" s="9"/>
       <c r="R115" s="11" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A116" s="18">
-        <v>1036</v>
-      </c>
+      <c r="A116" s="18"/>
       <c r="B116" s="5"/>
-      <c r="C116" s="5" t="s">
-        <v>158</v>
-      </c>
+      <c r="C116" s="5"/>
       <c r="D116" s="5"/>
-      <c r="E116" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F116" s="5">
-        <v>10</v>
-      </c>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
       <c r="G116" s="19"/>
       <c r="H116" s="19"/>
       <c r="I116" s="5"/>
@@ -34607,24 +33151,16 @@
       <c r="P116" s="5"/>
       <c r="Q116" s="5"/>
       <c r="R116" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A117" s="23">
-        <v>1037</v>
-      </c>
+      <c r="A117" s="23"/>
       <c r="B117" s="9"/>
-      <c r="C117" s="9" t="s">
-        <v>159</v>
-      </c>
+      <c r="C117" s="9"/>
       <c r="D117" s="9"/>
-      <c r="E117" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F117" s="9">
-        <v>10</v>
-      </c>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
       <c r="G117" s="24"/>
       <c r="H117" s="24"/>
       <c r="I117" s="9"/>
@@ -34637,24 +33173,16 @@
       <c r="P117" s="9"/>
       <c r="Q117" s="9"/>
       <c r="R117" s="11" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A118" s="18">
-        <v>79</v>
-      </c>
+      <c r="A118" s="18"/>
       <c r="B118" s="5"/>
-      <c r="C118" s="5" t="s">
-        <v>160</v>
-      </c>
+      <c r="C118" s="5"/>
       <c r="D118" s="5"/>
-      <c r="E118" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F118" s="5">
-        <v>5</v>
-      </c>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
       <c r="G118" s="19"/>
       <c r="H118" s="19"/>
       <c r="I118" s="5"/>
@@ -34667,7 +33195,7 @@
       <c r="P118" s="5"/>
       <c r="Q118" s="5"/>
       <c r="R118" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
